--- a/evaluation/results/one_svm/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_1/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.1701570680628272</v>
       </c>
       <c r="H2">
-        <v>0.5340422685928304</v>
+        <v>0.8025013376136971</v>
       </c>
       <c r="I2">
         <v>5</v>

--- a/evaluation/results/one_svm/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8540925266903915</v>
+        <v>0.402135231316726</v>
       </c>
       <c r="C2">
-        <v>0.078125</v>
+        <v>0.07458563535911603</v>
       </c>
       <c r="D2">
-        <v>0.1785714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.108695652173913</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="F2">
-        <v>0.1420454545454546</v>
+        <v>0.2848101265822785</v>
       </c>
       <c r="G2">
-        <v>0.1701570680628272</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="H2">
-        <v>0.8025013376136971</v>
+        <v>0.8012974852862493</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="K2">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="L2">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9538152610441767</v>
+        <v>0.995</v>
       </c>
       <c r="C2">
-        <v>0.8895131086142322</v>
+        <v>0.3726591760299626</v>
       </c>
       <c r="D2">
-        <v>0.9205426356589147</v>
+        <v>0.5422343324250681</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.078125</v>
+        <v>0.07458563535911603</v>
       </c>
       <c r="C3">
-        <v>0.1785714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.108695652173913</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8540925266903915</v>
+        <v>0.402135231316726</v>
       </c>
       <c r="C4">
-        <v>0.8540925266903915</v>
+        <v>0.402135231316726</v>
       </c>
       <c r="D4">
-        <v>0.8540925266903915</v>
+        <v>0.402135231316726</v>
       </c>
       <c r="E4">
-        <v>0.8540925266903915</v>
+        <v>0.402135231316726</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5159701305220883</v>
+        <v>0.534792817679558</v>
       </c>
       <c r="C5">
-        <v>0.5340422685928303</v>
+        <v>0.6684724451578384</v>
       </c>
       <c r="D5">
-        <v>0.5146191439164138</v>
+        <v>0.3403479354433033</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9101865647643956</v>
+        <v>0.9491430565659348</v>
       </c>
       <c r="C6">
-        <v>0.8540925266903915</v>
+        <v>0.402135231316726</v>
       </c>
       <c r="D6">
-        <v>0.8800947432432918</v>
+        <v>0.5221175384197676</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
